--- a/Documentation/Permaculture.xlsx
+++ b/Documentation/Permaculture.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>tomate</t>
   </si>
@@ -53,9 +53,6 @@
     <t>étang</t>
   </si>
   <si>
-    <t>plantes aromatiques</t>
-  </si>
-  <si>
     <t>nom</t>
   </si>
   <si>
@@ -137,35 +134,88 @@
     <t>Récolte</t>
   </si>
   <si>
-    <t>XX</t>
-  </si>
-  <si>
     <t>sem</t>
   </si>
   <si>
     <t>radis noir</t>
   </si>
   <si>
-    <t>composter</t>
-  </si>
-  <si>
     <t xml:space="preserve">planter </t>
   </si>
   <si>
     <t>cueillir</t>
   </si>
   <si>
-    <t>plan/cuei</t>
+    <t>%2</t>
+  </si>
+  <si>
+    <t>%3</t>
+  </si>
+  <si>
+    <t>%4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>SCORE DE TERRE</t>
+  </si>
+  <si>
+    <t>SCORE DE PLANTE</t>
+  </si>
+  <si>
+    <t>enlever</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -223,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -231,23 +281,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -263,6 +340,43 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AB10" totalsRowShown="0">
+  <autoFilter ref="A1:AB10"/>
+  <tableColumns count="28">
+    <tableColumn id="1" name="nom"/>
+    <tableColumn id="2" name="type"/>
+    <tableColumn id="3" name="buff"/>
+    <tableColumn id="4" name="%"/>
+    <tableColumn id="5" name="debuff"/>
+    <tableColumn id="6" name="%2"/>
+    <tableColumn id="7" name="m²"/>
+    <tableColumn id="8" name="protect"/>
+    <tableColumn id="9" name="parasite"/>
+    <tableColumn id="10" name="%3"/>
+    <tableColumn id="11" name="Récolte"/>
+    <tableColumn id="12" name="sem"/>
+    <tableColumn id="13" name="Qté"/>
+    <tableColumn id="14" name="compost"/>
+    <tableColumn id="15" name="%4"/>
+    <tableColumn id="16" name="1"/>
+    <tableColumn id="17" name="2"/>
+    <tableColumn id="18" name="3"/>
+    <tableColumn id="19" name="4"/>
+    <tableColumn id="20" name="5"/>
+    <tableColumn id="21" name="6"/>
+    <tableColumn id="22" name="7"/>
+    <tableColumn id="23" name="8"/>
+    <tableColumn id="24" name="9"/>
+    <tableColumn id="25" name="10"/>
+    <tableColumn id="26" name="11"/>
+    <tableColumn id="27" name="12"/>
+    <tableColumn id="28" name="enlever"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -528,121 +642,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" customWidth="1"/>
     <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="24" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="24" width="4.28515625" customWidth="1"/>
+    <col min="25" max="27" width="5.28515625" customWidth="1"/>
+    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" t="s">
-        <v>38</v>
-      </c>
       <c r="M1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1">
-        <v>1</v>
-      </c>
-      <c r="Q1">
-        <v>2</v>
-      </c>
-      <c r="R1">
-        <v>3</v>
-      </c>
-      <c r="S1">
-        <v>4</v>
-      </c>
-      <c r="T1">
-        <v>5</v>
-      </c>
-      <c r="U1">
-        <v>6</v>
-      </c>
-      <c r="V1">
-        <v>7</v>
-      </c>
-      <c r="W1">
-        <v>8</v>
-      </c>
-      <c r="X1">
-        <v>9</v>
-      </c>
-      <c r="Y1">
-        <v>10</v>
-      </c>
-      <c r="Z1">
-        <v>11</v>
-      </c>
-      <c r="AA1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -651,7 +769,7 @@
         <v>0.25</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>0.25</v>
@@ -660,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2">
         <v>0.5</v>
@@ -675,7 +793,7 @@
         <v>8</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O2">
         <v>0.25</v>
@@ -686,27 +804,31 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
+      <c r="V2" s="7"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -715,7 +837,7 @@
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O3">
         <v>0.25</v>
@@ -732,10 +854,11 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB3" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -743,7 +866,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>0.25</v>
@@ -752,7 +875,7 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
         <v>2</v>
@@ -764,28 +887,36 @@
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O4">
         <v>0.5</v>
       </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
-      <c r="X4" s="3"/>
+      <c r="X4" s="5"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA4" s="3"/>
+      <c r="AB4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>0.5</v>
@@ -794,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5">
         <v>0.25</v>
@@ -809,22 +940,28 @@
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O5">
-        <v>0.25</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
-      <c r="W5" s="3"/>
+      <c r="W5" s="5"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA5" s="3"/>
+      <c r="AB5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -850,29 +987,42 @@
         <v>8</v>
       </c>
       <c r="N6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O6">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="3"/>
       <c r="U6" s="4"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L7">
         <v>4</v>
@@ -881,30 +1031,36 @@
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="O7">
+        <v>0.25</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="4"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA7" s="2"/>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>0.5</v>
@@ -913,13 +1069,13 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8">
         <v>0.5</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L8">
         <v>8</v>
@@ -928,29 +1084,36 @@
         <v>8</v>
       </c>
       <c r="N8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O8">
         <v>0.25</v>
       </c>
       <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="3"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="2"/>
       <c r="S8" s="1"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
       </c>
       <c r="F9">
         <v>0.5</v>
@@ -959,13 +1122,13 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9">
         <v>0.25</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9">
         <v>4</v>
@@ -974,11 +1137,14 @@
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O9">
         <v>0.25</v>
       </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -988,8 +1154,11 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -997,31 +1166,66 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="N12" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="N13" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="N14" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="N15" s="11" t="s">
-        <v>42</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB12" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB13" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB14" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="N11:AA11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>